--- a/public/Sample_Data.xlsx
+++ b/public/Sample_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\EXCEL\nousteam\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D8DC48-B7EF-404D-ACF8-8F6655AB84D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C543FC4-521F-4339-8A52-E317DC924234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Overall Call score</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>Call_ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Nelsa web developement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datascale AI app </t>
+  </si>
+  <si>
+    <t>Media channel branding</t>
   </si>
 </sst>
 </file>
@@ -386,7 +398,7 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -397,7 +409,9 @@
     <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="8" customWidth="1"/>
-    <col min="7" max="21" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="21" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -422,7 +436,9 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -459,6 +475,9 @@
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -482,6 +501,9 @@
       <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
@@ -505,8 +527,36 @@
       <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>23748547</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="6">
+        <v>45637</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/public/Sample_Data.xlsx
+++ b/public/Sample_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\EXCEL\nousteam\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C543FC4-521F-4339-8A52-E317DC924234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB62CF5-5CC9-4131-8E6A-4C09DE743896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4704" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/public/Sample_Data.xlsx
+++ b/public/Sample_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\EXCEL\nousteam\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB62CF5-5CC9-4131-8E6A-4C09DE743896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F47B030-C17E-4651-8DED-CD7AFB2CAF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4704" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,7 +397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/public/Sample_Data.xlsx
+++ b/public/Sample_Data.xlsx
@@ -8,24 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\EXCEL\nousteam\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F47B030-C17E-4651-8DED-CD7AFB2CAF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E95B7B9-CB1A-4591-B63E-E3F30F67F6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4704" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="9DyAV/ermkmIx0aAA+s/CpB/OlzaO73DMi+i4rYBm74="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Overall Call score</t>
   </si>
@@ -95,12 +90,45 @@
   <si>
     <t>Media channel branding</t>
   </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Agent Feedback</t>
+  </si>
+  <si>
+    <t>The customer, Dipaanjal, calls the Neva Bol Raha Helpline to inquire about insurance policies. The agent discusses the benefits of the current policy, including a 5% online discount, a claim relationship manager, and a 30-minute guarantee certificate. The customer has a health insurance policy with a sum insured of â‚¹10 lakh, which is due for renewal. The agent suggests continuing the policy, highlighting its benefits, including cashback and no waiting period for future claims. The customer agrees to receive a mail with policy details and schedules a call for 1 PM the next day.</t>
+  </si>
+  <si>
+    <t>Based on the transcript, here are three areas of improvement for the agent:
+â€¢ **Improving understanding of customer needs**: The agent seems to be pushing for a specific policy without fully understanding the customer's requirements. For example, the customer mentions that they only have one health insurance policy, but the agent doesn't ask follow-up questions to clarify their needs.
+â€¢ **Providing clear and concise information**: The agent provides a lot of information, but it's not always clear or concise. For example, they mention the benefits of the policy, but don't explicitly state the premium amount or the waiting period for adding a wife to the policy.
+â€¢ **Anticipating and addressing customer concerns**: The agent doesn't seem to anticipate or address the customer's concerns about the policy, such as the high premium amount or the lack of flexibility in the policy. They could have asked more questions to understand the customer's concerns and provided more tailored solutions.</t>
+  </si>
+  <si>
+    <t>Agent Svitri from Leva Bhooca Health Insurance calls customer Rajni to discuss her 71-year-old mother's health insurance options. The customer is looking for a policy that covers her mother's medical history, including knee surgery and arthritis. The agent explains that they have a senior citizen plan that covers in-patient and out-patient treatments, including pre- and post-hospitalization expenses. The policy also includes co-payment of 50% and refill benefits. The agent offers to send the policy details and premium plan to Rajni's email.</t>
+  </si>
+  <si>
+    <t>Based on the transcript, here are three areas of improvement for the agent:
+â€¢ **Clearer communication**: The agent sometimes uses technical jargon or complex medical terms that may be difficult for the customer to understand. Improving communication skills to ensure that the customer comprehends the information being shared would be beneficial.
+â€¢ **Active listening**: The agent could improve their active listening skills by asking more clarifying questions and ensuring that they understand the customer's concerns and needs before proceeding with the conversation.
+â€¢ **Providing more detailed information**: The agent could provide more detailed information about the policy, such as the coverage limits, co-payment amounts, and other benefits, to help the customer make an informed decision.</t>
+  </si>
+  <si>
+    <t>The customer, a 26-year-old dentist, and her 28-year-old dentist husband, are searching for a health insurance policy. The agent, Ankit Sharma, from Neva Coopa Health Insurance, discusses the Aspire plan, which covers maternity benefits. The customer is interested in a 10 lakh coverage, but the agent suggests increasing it to 20 lakhs for better coverage. The agent explains the benefits of the plan, including no claim bonus and maternity benefits. The customer agrees to consider the plan and will call back after 5 PM to discuss further.</t>
+  </si>
+  <si>
+    <t>Based on the transcript, here are three areas of improvement for the agent:
+* **Improving communication**: The agent's voice was getting stuck, and the customer had to ask him to repeat himself multiple times. The agent should work on speaking clearly and at a moderate pace to ensure effective communication.
+* **Providing more detailed information**: The agent provided some information about the insurance plan, but it was not clear or detailed enough. The agent should provide more information about the plan, its features, and its benefits to help the customer make an informed decision.
+* **Handling customer's hesitation**: The customer seemed hesitant to make a decision, and the agent could have done more to address their concerns and provide reassurance. The agent should be more empathetic and try to understand the customer's concerns to build trust and confidence.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +146,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -133,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -163,11 +197,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -180,9 +230,15 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C9C1D5A5-718A-4927-A450-8363B4EADDAF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -397,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -411,7 +467,9 @@
     <col min="6" max="6" width="10.33203125" style="8" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" customWidth="1"/>
     <col min="8" max="8" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="21" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="21" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -439,8 +497,12 @@
       <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="I1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -453,7 +515,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>20828413</v>
       </c>
@@ -478,8 +540,14 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
+      <c r="I2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>20796214</v>
       </c>
@@ -504,8 +572,14 @@
       <c r="H3" t="s">
         <v>17</v>
       </c>
+      <c r="I3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>23748547</v>
       </c>
@@ -529,6 +603,12 @@
       </c>
       <c r="H4" t="s">
         <v>18</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="72" x14ac:dyDescent="0.3">
@@ -556,18 +636,53 @@
       <c r="H5" t="s">
         <v>18</v>
       </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/public/Sample_Data.xlsx
+++ b/public/Sample_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\EXCEL\nousteam\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E95B7B9-CB1A-4591-B63E-E3F30F67F6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64C091C-6A28-4B04-A829-B99A22B9037A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Overall Call score</t>
   </si>
@@ -123,12 +123,39 @@
 * **Providing more detailed information**: The agent provided some information about the insurance plan, but it was not clear or detailed enough. The agent should provide more information about the plan, its features, and its benefits to help the customer make an informed decision.
 * **Handling customer's hesitation**: The customer seemed hesitant to make a decision, and the agent could have done more to address their concerns and provide reassurance. The agent should be more empathetic and try to understand the customer's concerns to build trust and confidence.</t>
   </si>
+  <si>
+    <t>Miscommunications</t>
+  </si>
+  <si>
+    <t>Agent_clarity</t>
+  </si>
+  <si>
+    <t>Unnecessary_jargon</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Agent_Introduction</t>
+  </si>
+  <si>
+    <t>Call_associated_with_Product</t>
+  </si>
+  <si>
+    <t>Follow_Up_Required</t>
+  </si>
+  <si>
+    <t>Explicit_feedback</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +179,11 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -167,27 +199,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -215,26 +232,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -464,224 +488,301 @@
     <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" customWidth="1"/>
     <col min="8" max="8" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="38.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="21" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
+      <c r="K1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:21" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
         <v>20828413</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="12">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="13">
         <v>0.4</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="14">
         <v>45636</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="K2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:21" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
         <v>20796214</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="12">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="13">
         <v>0.6</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="14">
         <v>45635</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="K3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" spans="1:21" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
         <v>23748547</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="12">
         <v>4.5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="13">
         <v>0.8</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="14">
         <v>45637</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="11">
         <v>23748547</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="12">
         <v>4.5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="13">
         <v>0.8</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="14">
         <v>45637</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/public/Sample_Data.xlsx
+++ b/public/Sample_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\EXCEL\nousteam\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64C091C-6A28-4B04-A829-B99A22B9037A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1823B9A2-CDAD-48C7-AB55-94AF42A27461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
   <si>
     <t>Overall Call score</t>
   </si>
@@ -150,16 +150,188 @@
   <si>
     <t>Explicit_feedback</t>
   </si>
+  <si>
+    <t>Callid001</t>
+  </si>
+  <si>
+    <t>Callid002</t>
+  </si>
+  <si>
+    <t>Callid003</t>
+  </si>
+  <si>
+    <t>Callid004</t>
+  </si>
+  <si>
+    <t>Callid005</t>
+  </si>
+  <si>
+    <t>Callid006</t>
+  </si>
+  <si>
+    <t>Callid007</t>
+  </si>
+  <si>
+    <t>Callid008</t>
+  </si>
+  <si>
+    <t>Callid009</t>
+  </si>
+  <si>
+    <t>Callid010</t>
+  </si>
+  <si>
+    <t>Callid011</t>
+  </si>
+  <si>
+    <t>Callid012</t>
+  </si>
+  <si>
+    <t>Callid013</t>
+  </si>
+  <si>
+    <t>Callid014</t>
+  </si>
+  <si>
+    <t>Callid015</t>
+  </si>
+  <si>
+    <t>Callid016</t>
+  </si>
+  <si>
+    <t>Callid017</t>
+  </si>
+  <si>
+    <t>Callid018</t>
+  </si>
+  <si>
+    <t>Callid019</t>
+  </si>
+  <si>
+    <t>Callid020</t>
+  </si>
+  <si>
+    <t>Callid021</t>
+  </si>
+  <si>
+    <t>Callid022</t>
+  </si>
+  <si>
+    <t>Callid023</t>
+  </si>
+  <si>
+    <t>Callid024</t>
+  </si>
+  <si>
+    <t>Callid025</t>
+  </si>
+  <si>
+    <t>Callid026</t>
+  </si>
+  <si>
+    <t>Callid027</t>
+  </si>
+  <si>
+    <t>Callid028</t>
+  </si>
+  <si>
+    <t>Callid029</t>
+  </si>
+  <si>
+    <t>Callid030</t>
+  </si>
+  <si>
+    <t>Callid031</t>
+  </si>
+  <si>
+    <t>Callid032</t>
+  </si>
+  <si>
+    <t>Callid033</t>
+  </si>
+  <si>
+    <t>Callid034</t>
+  </si>
+  <si>
+    <t>Callid035</t>
+  </si>
+  <si>
+    <t>Callid036</t>
+  </si>
+  <si>
+    <t>Callid037</t>
+  </si>
+  <si>
+    <t>Callid038</t>
+  </si>
+  <si>
+    <t>Callid039</t>
+  </si>
+  <si>
+    <t>Callid040</t>
+  </si>
+  <si>
+    <t>Callid041</t>
+  </si>
+  <si>
+    <t>Callid042</t>
+  </si>
+  <si>
+    <t>Callid043</t>
+  </si>
+  <si>
+    <t>Callid044</t>
+  </si>
+  <si>
+    <t>Callid045</t>
+  </si>
+  <si>
+    <t>Callid046</t>
+  </si>
+  <si>
+    <t>Callid047</t>
+  </si>
+  <si>
+    <t>Callid048</t>
+  </si>
+  <si>
+    <t>Callid049</t>
+  </si>
+  <si>
+    <t>Callid050</t>
+  </si>
+  <si>
+    <t>Agent01</t>
+  </si>
+  <si>
+    <t>Agent02</t>
+  </si>
+  <si>
+    <t>Agent03</t>
+  </si>
+  <si>
+    <t>Agent04</t>
+  </si>
+  <si>
+    <t>Agent05</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,18 +343,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -230,39 +412,65 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C9C1D5A5-718A-4927-A450-8363B4EADDAF}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{9666D751-0977-4D71-8064-CEBB3D89AFF1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -475,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U1000"/>
+  <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -488,101 +696,112 @@
     <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" customWidth="1"/>
     <col min="8" max="8" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.88671875" customWidth="1"/>
+    <col min="10" max="10" width="110.6640625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:22" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <v>20828413</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="R1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="12">
-        <v>4</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="C2" s="8">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9">
         <v>0.4</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="10">
         <v>45636</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -591,51 +810,64 @@
       <c r="J2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="388.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>20796214</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="R2" s="7"/>
+      <c r="S2" s="7">
+        <v>2</v>
+      </c>
+      <c r="T2" s="7">
+        <v>3</v>
+      </c>
+      <c r="U2" s="7">
+        <v>4</v>
+      </c>
+      <c r="V2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12">
-        <v>4</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="8">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="9">
         <v>0.6</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="10">
         <v>45635</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -644,51 +876,66 @@
       <c r="J3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="374.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
-        <v>23748547</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="R3" s="7">
+        <v>2</v>
+      </c>
+      <c r="S3" s="7">
+        <v>3</v>
+      </c>
+      <c r="T3" s="7">
+        <v>5</v>
+      </c>
+      <c r="U3" s="7">
+        <v>4</v>
+      </c>
+      <c r="V3" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="8">
         <v>4.5</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="9">
         <v>0.8</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="10">
         <v>45637</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -697,141 +944,1770 @@
       <c r="J4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-    </row>
-    <row r="5" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>23748547</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="7">
+        <v>3</v>
+      </c>
+      <c r="S4" s="7">
+        <v>5</v>
+      </c>
+      <c r="T4" s="7">
+        <v>1</v>
+      </c>
+      <c r="U4" s="7">
+        <v>1</v>
+      </c>
+      <c r="V4" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>4.5</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="9">
         <v>0.8</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <v>45637</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-    </row>
-    <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="7">
+        <v>3</v>
+      </c>
+      <c r="S5" s="7">
+        <v>2</v>
+      </c>
+      <c r="T5" s="7">
+        <v>5</v>
+      </c>
+      <c r="U5" s="7">
+        <v>1</v>
+      </c>
+      <c r="V5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="7">
+        <v>3</v>
+      </c>
+      <c r="S6" s="7">
+        <v>4</v>
+      </c>
+      <c r="T6" s="7">
+        <v>1</v>
+      </c>
+      <c r="U6" s="7">
+        <v>1</v>
+      </c>
+      <c r="V6" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="7">
+        <v>4</v>
+      </c>
+      <c r="S7" s="7">
+        <v>2</v>
+      </c>
+      <c r="T7" s="7">
+        <v>4</v>
+      </c>
+      <c r="U7" s="7">
+        <v>1</v>
+      </c>
+      <c r="V7" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="7">
+        <v>2</v>
+      </c>
+      <c r="S8" s="7">
+        <v>4</v>
+      </c>
+      <c r="T8" s="7">
+        <v>3</v>
+      </c>
+      <c r="U8" s="7">
+        <v>2</v>
+      </c>
+      <c r="V8" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="7">
+        <v>5</v>
+      </c>
+      <c r="S9" s="7">
+        <v>2</v>
+      </c>
+      <c r="T9" s="7">
+        <v>1</v>
+      </c>
+      <c r="U9" s="7">
+        <v>5</v>
+      </c>
+      <c r="V9" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="7">
+        <v>4</v>
+      </c>
+      <c r="S10" s="7">
+        <v>1</v>
+      </c>
+      <c r="T10" s="7">
+        <v>3</v>
+      </c>
+      <c r="U10" s="7">
+        <v>5</v>
+      </c>
+      <c r="V10" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="7">
+        <v>3</v>
+      </c>
+      <c r="S11" s="7">
+        <v>2</v>
+      </c>
+      <c r="T11" s="7">
+        <v>5</v>
+      </c>
+      <c r="U11" s="7">
+        <v>2</v>
+      </c>
+      <c r="V11" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="7">
+        <v>3</v>
+      </c>
+      <c r="S12" s="7">
+        <v>3</v>
+      </c>
+      <c r="T12" s="7">
+        <v>5</v>
+      </c>
+      <c r="U12" s="7">
+        <v>5</v>
+      </c>
+      <c r="V12" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="7">
+        <v>2</v>
+      </c>
+      <c r="S13" s="7">
+        <v>3</v>
+      </c>
+      <c r="T13" s="7">
+        <v>3</v>
+      </c>
+      <c r="U13" s="7">
+        <v>4</v>
+      </c>
+      <c r="V13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="7">
+        <v>5</v>
+      </c>
+      <c r="S14" s="7">
+        <v>5</v>
+      </c>
+      <c r="T14" s="7">
+        <v>1</v>
+      </c>
+      <c r="U14" s="7">
+        <v>1</v>
+      </c>
+      <c r="V14" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="7">
+        <v>3</v>
+      </c>
+      <c r="S15" s="7">
+        <v>4</v>
+      </c>
+      <c r="T15" s="7">
+        <v>2</v>
+      </c>
+      <c r="U15" s="7">
+        <v>5</v>
+      </c>
+      <c r="V15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="7">
+        <v>1</v>
+      </c>
+      <c r="S16" s="7">
+        <v>3</v>
+      </c>
+      <c r="T16" s="7">
+        <v>3</v>
+      </c>
+      <c r="U16" s="7">
+        <v>4</v>
+      </c>
+      <c r="V16" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="7">
+        <v>3</v>
+      </c>
+      <c r="S17" s="7">
+        <v>2</v>
+      </c>
+      <c r="T17" s="7">
+        <v>3</v>
+      </c>
+      <c r="U17" s="7">
+        <v>3</v>
+      </c>
+      <c r="V17" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="7">
+        <v>1</v>
+      </c>
+      <c r="S18" s="7">
+        <v>3</v>
+      </c>
+      <c r="T18" s="7">
+        <v>2</v>
+      </c>
+      <c r="U18" s="7">
+        <v>4</v>
+      </c>
+      <c r="V18" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="7">
+        <v>5</v>
+      </c>
+      <c r="S19" s="7">
+        <v>2</v>
+      </c>
+      <c r="T19" s="7">
+        <v>2</v>
+      </c>
+      <c r="U19" s="7">
+        <v>1</v>
+      </c>
+      <c r="V19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="7">
+        <v>1</v>
+      </c>
+      <c r="S20" s="7">
+        <v>4</v>
+      </c>
+      <c r="T20" s="7">
+        <v>4</v>
+      </c>
+      <c r="U20" s="7">
+        <v>2</v>
+      </c>
+      <c r="V20" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="7">
+        <v>4</v>
+      </c>
+      <c r="S21" s="7">
+        <v>3</v>
+      </c>
+      <c r="T21" s="7">
+        <v>5</v>
+      </c>
+      <c r="U21" s="7">
+        <v>4</v>
+      </c>
+      <c r="V21" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="7">
+        <v>1</v>
+      </c>
+      <c r="S22" s="7">
+        <v>2</v>
+      </c>
+      <c r="T22" s="7">
+        <v>1</v>
+      </c>
+      <c r="U22" s="7">
+        <v>5</v>
+      </c>
+      <c r="V22" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="7">
+        <v>1</v>
+      </c>
+      <c r="S23" s="7">
+        <v>4</v>
+      </c>
+      <c r="T23" s="7">
+        <v>4</v>
+      </c>
+      <c r="U23" s="7">
+        <v>2</v>
+      </c>
+      <c r="V23" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="7">
+        <v>2</v>
+      </c>
+      <c r="S24" s="7">
+        <v>3</v>
+      </c>
+      <c r="T24" s="7">
+        <v>4</v>
+      </c>
+      <c r="U24" s="7">
+        <v>2</v>
+      </c>
+      <c r="V24" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="7">
+        <v>2</v>
+      </c>
+      <c r="S25" s="7">
+        <v>2</v>
+      </c>
+      <c r="T25" s="7">
+        <v>1</v>
+      </c>
+      <c r="U25" s="7">
+        <v>5</v>
+      </c>
+      <c r="V25" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="7">
+        <v>2</v>
+      </c>
+      <c r="S26" s="7">
+        <v>5</v>
+      </c>
+      <c r="T26" s="7">
+        <v>3</v>
+      </c>
+      <c r="U26" s="7">
+        <v>4</v>
+      </c>
+      <c r="V26" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="7">
+        <v>1</v>
+      </c>
+      <c r="S27" s="7">
+        <v>5</v>
+      </c>
+      <c r="T27" s="7">
+        <v>1</v>
+      </c>
+      <c r="U27" s="7">
+        <v>2</v>
+      </c>
+      <c r="V27" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="7">
+        <v>4</v>
+      </c>
+      <c r="S28" s="7">
+        <v>5</v>
+      </c>
+      <c r="T28" s="7">
+        <v>5</v>
+      </c>
+      <c r="U28" s="7">
+        <v>4</v>
+      </c>
+      <c r="V28" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="7">
+        <v>3</v>
+      </c>
+      <c r="S29" s="7">
+        <v>2</v>
+      </c>
+      <c r="T29" s="7">
+        <v>4</v>
+      </c>
+      <c r="U29" s="7">
+        <v>4</v>
+      </c>
+      <c r="V29" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="7">
+        <v>3</v>
+      </c>
+      <c r="S30" s="7">
+        <v>1</v>
+      </c>
+      <c r="T30" s="7">
+        <v>2</v>
+      </c>
+      <c r="U30" s="7">
+        <v>4</v>
+      </c>
+      <c r="V30" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="7">
+        <v>5</v>
+      </c>
+      <c r="S31" s="7">
+        <v>3</v>
+      </c>
+      <c r="T31" s="7">
+        <v>2</v>
+      </c>
+      <c r="U31" s="7">
+        <v>1</v>
+      </c>
+      <c r="V31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="7">
+        <v>1</v>
+      </c>
+      <c r="S32" s="7">
+        <v>4</v>
+      </c>
+      <c r="T32" s="7">
+        <v>2</v>
+      </c>
+      <c r="U32" s="7">
+        <v>3</v>
+      </c>
+      <c r="V32" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="7">
+        <v>5</v>
+      </c>
+      <c r="S33" s="7">
+        <v>4</v>
+      </c>
+      <c r="T33" s="7">
+        <v>2</v>
+      </c>
+      <c r="U33" s="7">
+        <v>4</v>
+      </c>
+      <c r="V33" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="7">
+        <v>5</v>
+      </c>
+      <c r="S34" s="7">
+        <v>3</v>
+      </c>
+      <c r="T34" s="7">
+        <v>5</v>
+      </c>
+      <c r="U34" s="7">
+        <v>3</v>
+      </c>
+      <c r="V34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="7">
+        <v>3</v>
+      </c>
+      <c r="S35" s="7">
+        <v>1</v>
+      </c>
+      <c r="T35" s="7">
+        <v>3</v>
+      </c>
+      <c r="U35" s="7">
+        <v>5</v>
+      </c>
+      <c r="V35" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="7">
+        <v>1</v>
+      </c>
+      <c r="S36" s="7">
+        <v>2</v>
+      </c>
+      <c r="T36" s="7">
+        <v>1</v>
+      </c>
+      <c r="U36" s="7">
+        <v>2</v>
+      </c>
+      <c r="V36" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="7">
+        <v>2</v>
+      </c>
+      <c r="S37" s="7">
+        <v>2</v>
+      </c>
+      <c r="T37" s="7">
+        <v>5</v>
+      </c>
+      <c r="U37" s="7">
+        <v>1</v>
+      </c>
+      <c r="V37" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="7">
+        <v>1</v>
+      </c>
+      <c r="S38" s="7">
+        <v>5</v>
+      </c>
+      <c r="T38" s="7">
+        <v>5</v>
+      </c>
+      <c r="U38" s="7">
+        <v>5</v>
+      </c>
+      <c r="V38" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="7">
+        <v>3</v>
+      </c>
+      <c r="S39" s="7">
+        <v>2</v>
+      </c>
+      <c r="T39" s="7">
+        <v>3</v>
+      </c>
+      <c r="U39" s="7">
+        <v>4</v>
+      </c>
+      <c r="V39" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="7">
+        <v>5</v>
+      </c>
+      <c r="S40" s="7">
+        <v>5</v>
+      </c>
+      <c r="T40" s="7">
+        <v>3</v>
+      </c>
+      <c r="U40" s="7">
+        <v>1</v>
+      </c>
+      <c r="V40" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="7">
+        <v>5</v>
+      </c>
+      <c r="S41" s="7">
+        <v>3</v>
+      </c>
+      <c r="T41" s="7">
+        <v>3</v>
+      </c>
+      <c r="U41" s="7">
+        <v>1</v>
+      </c>
+      <c r="V41" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="7">
+        <v>3</v>
+      </c>
+      <c r="S42" s="7">
+        <v>1</v>
+      </c>
+      <c r="T42" s="7">
+        <v>4</v>
+      </c>
+      <c r="U42" s="7">
+        <v>2</v>
+      </c>
+      <c r="V42" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="7">
+        <v>3</v>
+      </c>
+      <c r="S43" s="7">
+        <v>2</v>
+      </c>
+      <c r="T43" s="7">
+        <v>3</v>
+      </c>
+      <c r="U43" s="7">
+        <v>4</v>
+      </c>
+      <c r="V43" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="7">
+        <v>4</v>
+      </c>
+      <c r="S44" s="7">
+        <v>4</v>
+      </c>
+      <c r="T44" s="7">
+        <v>5</v>
+      </c>
+      <c r="U44" s="7">
+        <v>4</v>
+      </c>
+      <c r="V44" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="7">
+        <v>5</v>
+      </c>
+      <c r="S45" s="7">
+        <v>1</v>
+      </c>
+      <c r="T45" s="7">
+        <v>3</v>
+      </c>
+      <c r="U45" s="7">
+        <v>1</v>
+      </c>
+      <c r="V45" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="7">
+        <v>5</v>
+      </c>
+      <c r="S46" s="7">
+        <v>1</v>
+      </c>
+      <c r="T46" s="7">
+        <v>3</v>
+      </c>
+      <c r="U46" s="7">
+        <v>1</v>
+      </c>
+      <c r="V46" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="7">
+        <v>1</v>
+      </c>
+      <c r="S47" s="7">
+        <v>1</v>
+      </c>
+      <c r="T47" s="7">
+        <v>1</v>
+      </c>
+      <c r="U47" s="7">
+        <v>1</v>
+      </c>
+      <c r="V47" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="7">
+        <v>4</v>
+      </c>
+      <c r="S48" s="7">
+        <v>4</v>
+      </c>
+      <c r="T48" s="7">
+        <v>1</v>
+      </c>
+      <c r="U48" s="7">
+        <v>1</v>
+      </c>
+      <c r="V48" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="7">
+        <v>1</v>
+      </c>
+      <c r="S49" s="7">
+        <v>4</v>
+      </c>
+      <c r="T49" s="7">
+        <v>3</v>
+      </c>
+      <c r="U49" s="7">
+        <v>4</v>
+      </c>
+      <c r="V49" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="7">
+        <v>3</v>
+      </c>
+      <c r="S50" s="7">
+        <v>4</v>
+      </c>
+      <c r="T50" s="7">
+        <v>2</v>
+      </c>
+      <c r="U50" s="7">
+        <v>3</v>
+      </c>
+      <c r="V50" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="7">
+        <v>2</v>
+      </c>
+      <c r="S51" s="7">
+        <v>5</v>
+      </c>
+      <c r="T51" s="7">
+        <v>1</v>
+      </c>
+      <c r="U51" s="7">
+        <v>5</v>
+      </c>
+      <c r="V51" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+    </row>
+    <row r="53" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/public/Sample_Data.xlsx
+++ b/public/Sample_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\EXCEL\nousteam\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1823B9A2-CDAD-48C7-AB55-94AF42A27461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126456D5-9973-48D9-A369-B7137A964F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
   <si>
     <t>Overall Call score</t>
   </si>
@@ -315,16 +315,35 @@
   <si>
     <t>Agent05</t>
   </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>./audio_file.m4a</t>
+  </si>
+  <si>
+    <t>Audio_Transcription</t>
+  </si>
+  <si>
+    <t>Speaker 0: Boss piyoosh mishra unki ek shaayri hai. Ek statement yah hai shaayri to bada word ho gaya halki phulki si hai zindagi. Boach to bas khvaahish hota hai. To sab chizen chaahie to matlab achchha to kyon nahin lagta sabko lag sakta hai na. Who doesn't want to travel go in a fancy restaurant, travel business class kar lo.Saari mahange gadgets le lo sabko achchha lagta hota hai ki doosre ke haath mein dekhakar aphasos hota hai ki mere paas nahin hai. If you don't like your job, your career progression cannot happen at a great level. Pasand hi nahin hai to aap nahin kar sakte. Mere das saal mein ek promotion nahin hai. Das saal mein ek promotion nahin hai kyonki promotion to sambhaal rahi hai na aap karte nahin ho achchha.Speaker 1: You have put your job, your wife is still working. A lot of people in the comments will come and say ek wife to abhi bhi kaam kar rahi hai, isne retirement le li hai. Yah kaisa early retirement hua hai? What is your take of this? Welcome to the the podcast again and today we have aadity maheshvari with us.He has been able to achieve his early retirement just at the age of 36. Hi aadity welcome to this. In the start if you can just you know introduce ourself.Speaker 0: So I belong to ajmer raajasthaan. I did my schooling from there. Post that I did my B tech from university of pune, I did it in computer science, then I did my MBA from IMT gaaziyaabaad and post that I started my career with Axis, then city and then parallel house in finance these has been my corporate distinct with us and that's post last 2 years I have been at home dad retired.Speaker 1: When did the idea of fire came to you?Speaker 0: This would have happened around 2019 that calculations came into picture I will say my job was so bad that I just need to think of my job. Haan. Vah to nahin kar sakte.Speaker 1: Right.Speaker 0: Vah nahin kar sakte to for me like a primary reason was having a bad job. If you have a good job, yes its good you continue working that's all great because somebody had to take that call across ki matlab vahi vaali baat hai bimaar chhodne se to achchha fit chhod do and unko sabse matlab the whole aspect of earning is like to have like paise hone chaahie aapke paas to we thought across we and wife across that this is not what I want to do. It was taking a toll on mental health, physical health everything. It was taking a toll on all those things. Then finally what we decided was that how much is a basic amount which we need to have a decent life which we want to live across.We came to a quantum of amount that this is what we need because then there would be no expense of rent, no office commute. These expenses would seize as an than if we thought of retiring across. My wife she loves a job. So till the time so I can always like it was this amongst us was an understanding I not say not the thing decided across that if I don't like and if it takes a help told on me I can quit as and when I want but I would quit when we both have an option that if she wants to join in the early retirement that very day. We should have that quantum of money with us.If she wants to continue because she likes to work she would continue working. That's was the initial thought across.Speaker 1: You did not like your job at all like what do you are doing? Right, but you still did it for 10 years.Speaker 0: A I do believe that if you don't like your job, your career progression cannot happen at a great level. Pasand hi nahin hai to aap nahin kar sakte. Probably I didn't had the guts to quit at a early stage and explore something else. Agar aapko initially mauka milta hai yes you should explore things. You should not wait for that thing but agar nahin milta hai to phir if you are stuck somewhere you will have to swim tairna to aata hai to bas tairte raho.Some day you will find that sure across with you. So I am saying that promotions mere das saal mein ek promotion nahin hai. Das saal mein ek promotion nahin hai kyonki promotion to hoga nahin na, aap karte nahin ho achchha.Speaker 1: You have put your job, your wife is still working. A lot of people in the comments will come and say ek wife to abhi bhi kaam kar rahi hai, isne re diamond le li hai. Yah kaisa early re diamond hua hai. What is your takeSpeaker 0: on this? More like angret into the older generation the younger kids are more so fine because the younger cousins which I have they are more so ok about that ke jo suit hota hai jisko vah aisa kar le. But yes this motion definitely come into picture but for us it is also was very clear that our fire number which is which we have achieved for both of us. But if someone likes to work whohim I to stop him or her from working or continue. So FI is most important like we have achieved our financial independence.Retire early was for me not for her. She wants to continue she is continuing her job. I cannot force my decision to her that since I have left my job you also leave your job.Speaker 1: I think that's a great thing to look at this also that that's you being supporters as a partner to her also like respecting her wishes that ki aisa nahin hai ki yaar main kaam nahin kar raha tha tum bhi nahin karoge hamne to. Vah haiSpeaker 0: plus India mein reverse hota hai to people are more than probably nobody questions also whether we go into philosophically saying that phir kaisi equality but yes vah to vaise bhi aap baat hi karte ho sirph equality ki phir equality hui bhi nahin. To that is fine for us and we both as a couple are understanding enough that mainne chhoda hai it doesn't impact our relationship. Right. Mainne chhoda hai vah kar rahi hai because usko pasand hai.Speaker 1: If I see it it's actually a very beautiful story right matlab this kind of freedom and understanding in a relationship I think is at most important because yah nahin hoti to phir matlab Fire vaiseSpeaker 0: bhi aapka individual ho bhi nahin sakta agar aap financially is like 1 of the most important aspect you as a couple or family have. So those 2 things if they are in sync with you, you both are sync in with the finances which you have that is at most important then only you can even think of firing other things.Speaker 1: What was the number that you are aspiring for ki yah number hit cut jaega then may be I willSpeaker 0: So that was a very very basic number tab tak itni chizen pata nahin thi. Pata se I will say ki expenses can things and different understanding of various other aspects of firing and I didn't had a son at that point of time. So that basic number was around 2.25 or 2.5 I have, I shift to my home town because we have a home, house everything is there. So that would be sufficient for what things what we want to do in our life that amount would be sufficient enough. So that was around 2 2.25.Speaker 1: To kya phir vo number update kiya aapne matlab let's suppose because that was the number you decided when you let's say you didn't have your. VoSpeaker 0: number Covid crash ke baad hi achieve ho gaya so we achieved that number just after a Covid crash So then we updated because then we realize across so we have an expensive hobby. We want to travel the world. So that's an expensive hobby which we are following. We perse means my wife is too fond of doing that and I also over a time realize that I like traveling and traveling abroad also. So that's an expensive hobby.So a for that there are numbers were upgraded and b till that point of time I was not that keen to leave my job that very particular day ki number ho gaya hai aaj achieve kar lete hai. It was more so decided ki kuchh a like till a certain age I will continue with my job.Speaker 1: So vah jo number update kiya vah number phir kitna hua ki?Speaker 0: When I left it was around 33 x.Speaker 1: 33 x ofSpeaker 0: annual expenses.Speaker 1: If you could also you know tell us the journey because you have been able to achieve, let's say, at the age of 36, right? And obviously your wife is also working, so donon ka hi contribution right towards this journey. People would also like to know like what has been your growth in terms of your salaries over the period of years. If you could just share us a journey ki like at how much did you start and when you retired, how much were you are?Speaker 0: Sure. So my journey I started as a management training with access bag. So that time it was around 55 to 60000 was total salary that included the PF component also.Speaker 1: Right.Speaker 0: That was my initial salary and banking is a very low growth.Speaker 1: And this was which year?Speaker 0: 2012.Speaker 1: 2012, right.Speaker 0: Then from Axis I moved to City at around 2015 I moved to City Bank, jaypur.Speaker 1: And just to add this if you could just also tell with almost every upgrade how much money are you saving almost.Speaker 0: More than 50 percent.Speaker 1: So you saving almost 50 percent of income right from your first job Right and that is stair with you. Yeah.Speaker 0: It definitely grew the percentage also grew when we like when I got married as a couple the percentage also grew.Speaker 1: Thik hai so after access where did you joined?Speaker 0: I joined Citibank. And what would be. City Bank would be around 9 and a half.Speaker 1: 9 and a half lakhs.Speaker 0: Plus vah Axis has a structure of bonus city was with incentives. So this was I am talking about the fixed part and then city had a structure of getting quarterly incentives too.Speaker 1: So city was 9.5 and after that like where did you go or something?Speaker 0: City and then post city I joined parmaal housing finance that was in 2019.Speaker 1: 2019 and how much was the CTC there?Speaker 0: That time I joined them at around 15 or 16 lakhs.Speaker 1: So and I think Teraamil was the last. Last. Last. So you almost worked there I believe till 20 22. So what was the last pay cheque that you were drawing there?Speaker 0: That was a very bad time for a housing finance industry so you know total 3 years we got an increment only once and then there was hardly an increment.Speaker 1: Yeah, I can understand.Speaker 0: So that was a like around 1 1.5 lakh over.Speaker 1: Right so around 17 percent.Speaker 0: That's around 17.Speaker 1: Why did you feel ki yaar main pahle hi job se apna pachaas percent saving rate mainne rakha?Speaker 0: Savings matlab there was nothing like ek to mahange shauk nahin hai, to apne bach jaate hain. If I talk about you, if you as a couple right now the rentals have gone through the room But if I talk about 5 year down the line. If you used to earn 2 lakhs as a couple just some figure 2 lakhs you are getting credit and PF got deducted before it a little bit of PF end. 2 lakhs when through 25000 is the max rent probably will pay for a 2 BHK at that point of time. If you want to go in a past society yes definitely you can go and live.Right now what do you call the pg's are giving you at 20000 a room. So that's a separate thing. 20 25000 is a rent. Rest if you spend on eating and maids 6000 would be your food and everything 6000 would be your mates if you just segregate them probably your most of the expense that would be somewhere which can be easily avoided 50 55000 with rent if you are having like outgoing out only in on a weekends and those kind of things and then Zomato was got the culture. So if you can save it that point of time it is like basic and every normal thing easily possible at 60000.If you just try to break up your expenses. Right. Can happen but if you split those expenses that itna hi hota hai, itna hi hota hai, itna hi hota hai, it would be very easy to break.Speaker 1: Right, I think basic needs ka dhyaan I think India is especially 1 of those countries jahaan par even in a middle class or upper middle class setting I think you can cover your expenses within 50 60000 in a month.Speaker 0: Yes, the major expenses till today also the major expenses rahenge.Speaker 1: Haan, until unless aap bahut aspirational ho, aapko bahut chizen show karni hai.Speaker 0: Aspiration is like going for every new gadgets so we even we were using Redmi that is also for 4 yearsSpeaker 1: CorrectSpeaker 0: At that point of time where we could easily afforded an iPhone not even on EMI's. We were having Redmi and we are more than happy with it. There was piyoosh mishra unki ek shaayri hai. Vah ek statement yah hai shaayri to bada word ho gaya. Halki phulki si hai zindagi bojh to bas khvaahishon ka hai.Right. To this has stayed with him ki khvaahishon to matlab karte jao obviously you will have to khvaahishon jo hoti hai vah limit mein honi chaahie. To sab chizen chaahie to matlab achchha to kyon nahin lagta sabko lag sakta hai na.Speaker 1: WhoSpeaker 0: doesn't want to have a like go in a fancy restaurant, travel business class kar lo, saare mahange gadgets le lo, sabko achchha laga, pata nahin achchha lagta hota hai ki doosre ke haath mein dekhakar aphasos hota hai ki mere paas nahin hai.Speaker 1: A lot of people would want to know even your investing journey right because 10 years mein to have the 33 x ka corpus is something that you have done, surely done something right which other people don't right. If you could just walk through your investing journey indirectly ki kaise kaise you deployed your fund.Speaker 0: So first thing, 33 x as with me and my wife compliance. Right. I would like to clarify that and the journey. So from as I told you initial first year was towards the FD side when I had a decent amount of FD's with me then I started investing into equities through mutual funds only Until date it has been more so just mutual funds. There is only a little exposure to equity which I have which I bought 1 year back that's all.It has been all about investing into mutual funds because I was not having neither the time to study equities neither the Congress.Speaker 1: And so mutual funds mein jaise you said you you you came across 1 mutual fund industry. So what did he tell you like because I think he also deserves a lot of credit.Speaker 0: He deserves like in this whole journey he deserves the most of the credit. Right. Because had it been like not holding my hand I would have redeemed like most of the people do in 1 or 2 years. He was holding the hand that's why that's the very reason I was invested for 10 long years into the.Speaker 1: And before let say you started your relationship with this particular which distributor did you goals. No noSpeaker 0: we didn't discuss any of the goals because that time there were no goals. It was just that we have certain surplus and I wanted to invest in equity so I wanted to do that.Speaker 1: Apart from mutual funds or let say equities did you explore any other asset classes also during this period?Speaker 0: We have certain investment in government bonds. That so my, my debt portfolio is not with that mutual funds. Neither of is with FDs but my debt portfolio is not with mutual funds. Its EPF employee provident fund and government works.Speaker 1: This isSpeaker 0: my debt portfolio.Speaker 1: And how much is let's say the allocation in terms of percentage wise mutual funds.Speaker 0: I think it would be around like 65, 60 65 equity and the rest isSpeaker 1: If you could let's say break it into years, year, year 2 ki what kind of returns were you getting ki kaisa XRR tha?Speaker 0: We started in 2013 it was very small amount which was going through so I was not bothered much about XRR that yes it is better than FD and we will have that that thought was very clear that I have to give certain time for this to grow. We are not much bothered about those XIRR and returns. Yes, it was must have been giving that 10:12 or percent or 13 percent 14 percent. The only thing which was happening was I definitely had that faith or trust ki yah badh to jaega. That was the confidence which I had that yah badh to jaega to let's continue the journey 2013, 2015 I got married and then 2016 we started the portfolio of my wife also with him only.So then 2016 we started by 17 by 18 the market went bad into midcap and small cap. So the whole return of midcap and small cap turned negative during that period. But that negative didn't impact it as much because my portfolio which was from 2013, that was a still positive for my wife which is started in 2016 that got into negative territory but that very faith that since the old portfolio which I have is positive so over a period of time things would turn well because negative hamesha rahna nahin hai. The returns and then 2020 crash came. That till that time the returns would have been around 14 percent x r round that.Right. Then 20 came 20 the complete profits were more so wiped off.Speaker 1: Right. Us time par kya feeling thi matlab kyonki that was I think once in a life time situation jo chal raha tha what was I think tab to aapke paas goals bhi honge right aapkeSpeaker 0: goals the, paise the to aur laga die.Speaker 1: Haan.Speaker 0: So I had a surplus that point of time.Speaker 1: Right.Speaker 0: I was having funds available in my liquid funds, so I deployed more money into the markets.Speaker 1: Right, so you had confidence ki yaar this would even go higher.Speaker 0: So that confidence was there so I deployed more money into the markets and then post that obviously the market has been on a great run. So right now portfolio our XR for me would it would be around 21 and for my wife it would be around 25.5, that's the XR which we have from 2016 till now for her. This is with mutual funds.Speaker 1: How is life let say after retiring early because a lot of people have certain notions or they perceive ki aisi hogi vaisi hogi. They also plan and you have already been living this life for from past 2 years. What has been your experience?Speaker 0: So life after retirement. So 1 thing I have been able to spend more time with my son. We are able to take more vacations, more plan vacations. That's all and for me as I told you I am doing nothing right now because I don't find anything which would keep me busy rather than neither I want.Speaker 1: How does let say your parents see this?Speaker 0: My parents have been quite understanding shuruaat se jab career ke decision hue the tab se lekar bhi but jab yah hua so they were well aware of my job part. Ek to ki job mein kya stress hai? They were aware of my corpus that ki kya aapke paas ikatthe ho kitne paise hai? How are you going to manage across? Ek basic calculations unko pata thi ki haan aise aise to ho to sakta hai.So that is what they were aware of parents say all it's all about sharma ji ki vah kya kahenge bhala zyaada hai ki matlab society what will the society think of? That's still a question. We are at peace with that. To society kya kahegi ji kuchh bhi kahtinSpeaker 1: hain. Anything that you wish to tell to people ki yaar during this fire journey or financial freedom journey, your any particular message that you want to give to people?Speaker 0: Pahla message yah rahega ki jo ham paise vah ham kisi se discuss nahin karte. Aap kya bacha rahe ho? Main kya bacha raha hoon ham kharche discuss kar lenge aur paise bacha kaun raha hai koi discuss nahin karta.Speaker 1: I think this is bola aapne abhi bola to mujhe strike hua ki haan yah hai sab.Speaker 0: Ham ham kharche discuss kar lenge aapne naya phone kharida aap bataoge aapne paanch lakh ki FD kari hai aap shaayad kisi ko nahin bataane vaale but you need to find that 1 friend nahin hai to phir vah distributor isilie chaahie. Vah can tell you ki kya bachaaya jisse aap share kar sako kya bachaaya hai aur kaise bada hai? Kyonki vah bhi aapko tabhi kick deta hai.Speaker 1: Right.Speaker 0: Because aap jo chiz kharidte ho vah to aapko kick de deti hai. Kyonki doosre log chaar log appreciate karte hain. Aap paise discuss karne vaala apne paas hona chaahie. Jinse you can probably discuss your investment journeys aur strategies paise and doosra sabki apni race hai koi zyaada kamaega koi kam. You need to be content with what you are earning jo aapko chaahie vah mil raha hai kisi whatever like n number of funds available into the market.You invested in 1 where you got 25 percent return. I got a 20 percent return. Main ek saal baad koodkar yah fund chhodkar vahaan chala jaata hoon. That should not be the case vah jo chaar paanch fund hai shuroo kie stick to that yes they should be like you should have certain threshold in your mind.Speaker 1: If itSpeaker 0: beats that yes its fine you continue with your fund because its a charning thing jo aaj ka topper hai vah kal nahin hoga.Speaker 1: Thank you so much for joining with us today. Thank you. I think bahut saare achchhe insights mile I think aaj audience ko. But yah a lot of people with relate to this. Thank you so much for coming.So guys we hope that you like this podcast and we will be bringing more such podcast as well so please consider subscribing the channel. If you are someone who has a similar story like aadity, and as any other interesting financial journey to share, we are ready to host you, so you can find link in the description of a Google form wherein you can just, by answering certain questions, our team will reach out to you and we will schedule the podcast, so thank you.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,6 +385,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -381,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -411,13 +436,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -426,7 +464,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -435,37 +473,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V1000"/>
+  <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -709,9 +765,12 @@
     <col min="16" max="16" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="8.6640625" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" style="18"/>
+    <col min="23" max="23" width="14.44140625" style="25"/>
+    <col min="24" max="24" width="124.44140625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -775,11 +834,17 @@
       <c r="U1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="W1" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
@@ -831,7 +896,9 @@
       <c r="Q2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="7"/>
+      <c r="R2" s="7">
+        <v>5</v>
+      </c>
       <c r="S2" s="7">
         <v>2</v>
       </c>
@@ -841,11 +908,17 @@
       <c r="U2" s="7">
         <v>4</v>
       </c>
-      <c r="V2" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="V2" s="20">
+        <v>2</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -909,11 +982,11 @@
       <c r="U3" s="7">
         <v>4</v>
       </c>
-      <c r="V3" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+      <c r="V3" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>38</v>
       </c>
@@ -963,11 +1036,11 @@
       <c r="U4" s="7">
         <v>1</v>
       </c>
-      <c r="V4" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="V4" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -1013,11 +1086,11 @@
       <c r="U5" s="7">
         <v>1</v>
       </c>
-      <c r="V5" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V5" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>40</v>
       </c>
@@ -1049,11 +1122,11 @@
       <c r="U6" s="7">
         <v>1</v>
       </c>
-      <c r="V6" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V6" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>41</v>
       </c>
@@ -1085,11 +1158,11 @@
       <c r="U7" s="7">
         <v>1</v>
       </c>
-      <c r="V7" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V7" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -1121,11 +1194,11 @@
       <c r="U8" s="7">
         <v>2</v>
       </c>
-      <c r="V8" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V8" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
@@ -1157,11 +1230,11 @@
       <c r="U9" s="7">
         <v>5</v>
       </c>
-      <c r="V9" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V9" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
@@ -1193,11 +1266,11 @@
       <c r="U10" s="7">
         <v>5</v>
       </c>
-      <c r="V10" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V10" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>45</v>
       </c>
@@ -1229,11 +1302,11 @@
       <c r="U11" s="7">
         <v>2</v>
       </c>
-      <c r="V11" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V11" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>46</v>
       </c>
@@ -1265,11 +1338,11 @@
       <c r="U12" s="7">
         <v>5</v>
       </c>
-      <c r="V12" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V12" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
@@ -1301,11 +1374,11 @@
       <c r="U13" s="7">
         <v>4</v>
       </c>
-      <c r="V13" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V13" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>48</v>
       </c>
@@ -1337,11 +1410,11 @@
       <c r="U14" s="7">
         <v>1</v>
       </c>
-      <c r="V14" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V14" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>49</v>
       </c>
@@ -1373,11 +1446,11 @@
       <c r="U15" s="7">
         <v>5</v>
       </c>
-      <c r="V15" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V15" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>50</v>
       </c>
@@ -1409,7 +1482,7 @@
       <c r="U16" s="7">
         <v>4</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="20">
         <v>2</v>
       </c>
     </row>
@@ -1445,7 +1518,7 @@
       <c r="U17" s="7">
         <v>3</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V17" s="20">
         <v>3</v>
       </c>
     </row>
@@ -1481,7 +1554,7 @@
       <c r="U18" s="7">
         <v>4</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V18" s="20">
         <v>4</v>
       </c>
     </row>
@@ -1517,7 +1590,7 @@
       <c r="U19" s="7">
         <v>1</v>
       </c>
-      <c r="V19" s="7">
+      <c r="V19" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1553,7 +1626,7 @@
       <c r="U20" s="7">
         <v>2</v>
       </c>
-      <c r="V20" s="7">
+      <c r="V20" s="20">
         <v>5</v>
       </c>
     </row>
@@ -1589,7 +1662,7 @@
       <c r="U21" s="7">
         <v>4</v>
       </c>
-      <c r="V21" s="7">
+      <c r="V21" s="20">
         <v>3</v>
       </c>
     </row>
@@ -1625,7 +1698,7 @@
       <c r="U22" s="7">
         <v>5</v>
       </c>
-      <c r="V22" s="7">
+      <c r="V22" s="20">
         <v>5</v>
       </c>
     </row>
@@ -1661,7 +1734,7 @@
       <c r="U23" s="7">
         <v>2</v>
       </c>
-      <c r="V23" s="7">
+      <c r="V23" s="20">
         <v>4</v>
       </c>
     </row>
@@ -1697,7 +1770,7 @@
       <c r="U24" s="7">
         <v>2</v>
       </c>
-      <c r="V24" s="7">
+      <c r="V24" s="20">
         <v>2</v>
       </c>
     </row>
@@ -1733,7 +1806,7 @@
       <c r="U25" s="7">
         <v>5</v>
       </c>
-      <c r="V25" s="7">
+      <c r="V25" s="20">
         <v>5</v>
       </c>
     </row>
@@ -1769,7 +1842,7 @@
       <c r="U26" s="7">
         <v>4</v>
       </c>
-      <c r="V26" s="7">
+      <c r="V26" s="20">
         <v>4</v>
       </c>
     </row>
@@ -1805,7 +1878,7 @@
       <c r="U27" s="7">
         <v>2</v>
       </c>
-      <c r="V27" s="7">
+      <c r="V27" s="20">
         <v>2</v>
       </c>
     </row>
@@ -1841,7 +1914,7 @@
       <c r="U28" s="7">
         <v>4</v>
       </c>
-      <c r="V28" s="7">
+      <c r="V28" s="20">
         <v>4</v>
       </c>
     </row>
@@ -1877,7 +1950,7 @@
       <c r="U29" s="7">
         <v>4</v>
       </c>
-      <c r="V29" s="7">
+      <c r="V29" s="20">
         <v>2</v>
       </c>
     </row>
@@ -1913,7 +1986,7 @@
       <c r="U30" s="7">
         <v>4</v>
       </c>
-      <c r="V30" s="7">
+      <c r="V30" s="20">
         <v>3</v>
       </c>
     </row>
@@ -1949,7 +2022,7 @@
       <c r="U31" s="7">
         <v>1</v>
       </c>
-      <c r="V31" s="7">
+      <c r="V31" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1985,7 +2058,7 @@
       <c r="U32" s="7">
         <v>3</v>
       </c>
-      <c r="V32" s="7">
+      <c r="V32" s="20">
         <v>2</v>
       </c>
     </row>
@@ -2021,7 +2094,7 @@
       <c r="U33" s="7">
         <v>4</v>
       </c>
-      <c r="V33" s="7">
+      <c r="V33" s="20">
         <v>4</v>
       </c>
     </row>
@@ -2057,7 +2130,7 @@
       <c r="U34" s="7">
         <v>3</v>
       </c>
-      <c r="V34" s="7">
+      <c r="V34" s="20">
         <v>1</v>
       </c>
     </row>
@@ -2093,7 +2166,7 @@
       <c r="U35" s="7">
         <v>5</v>
       </c>
-      <c r="V35" s="7">
+      <c r="V35" s="20">
         <v>2</v>
       </c>
     </row>
@@ -2129,7 +2202,7 @@
       <c r="U36" s="7">
         <v>2</v>
       </c>
-      <c r="V36" s="7">
+      <c r="V36" s="20">
         <v>3</v>
       </c>
     </row>
@@ -2165,7 +2238,7 @@
       <c r="U37" s="7">
         <v>1</v>
       </c>
-      <c r="V37" s="7">
+      <c r="V37" s="20">
         <v>5</v>
       </c>
     </row>
@@ -2201,7 +2274,7 @@
       <c r="U38" s="7">
         <v>5</v>
       </c>
-      <c r="V38" s="7">
+      <c r="V38" s="20">
         <v>5</v>
       </c>
     </row>
@@ -2237,7 +2310,7 @@
       <c r="U39" s="7">
         <v>4</v>
       </c>
-      <c r="V39" s="7">
+      <c r="V39" s="20">
         <v>4</v>
       </c>
     </row>
@@ -2273,7 +2346,7 @@
       <c r="U40" s="7">
         <v>1</v>
       </c>
-      <c r="V40" s="7">
+      <c r="V40" s="20">
         <v>4</v>
       </c>
     </row>
@@ -2309,7 +2382,7 @@
       <c r="U41" s="7">
         <v>1</v>
       </c>
-      <c r="V41" s="7">
+      <c r="V41" s="20">
         <v>1</v>
       </c>
     </row>
@@ -2345,7 +2418,7 @@
       <c r="U42" s="7">
         <v>2</v>
       </c>
-      <c r="V42" s="7">
+      <c r="V42" s="20">
         <v>5</v>
       </c>
     </row>
@@ -2381,7 +2454,7 @@
       <c r="U43" s="7">
         <v>4</v>
       </c>
-      <c r="V43" s="7">
+      <c r="V43" s="20">
         <v>5</v>
       </c>
     </row>
@@ -2417,7 +2490,7 @@
       <c r="U44" s="7">
         <v>4</v>
       </c>
-      <c r="V44" s="7">
+      <c r="V44" s="20">
         <v>4</v>
       </c>
     </row>
@@ -2453,7 +2526,7 @@
       <c r="U45" s="7">
         <v>1</v>
       </c>
-      <c r="V45" s="7">
+      <c r="V45" s="20">
         <v>3</v>
       </c>
     </row>
@@ -2489,7 +2562,7 @@
       <c r="U46" s="7">
         <v>1</v>
       </c>
-      <c r="V46" s="7">
+      <c r="V46" s="20">
         <v>1</v>
       </c>
     </row>
@@ -2525,7 +2598,7 @@
       <c r="U47" s="7">
         <v>1</v>
       </c>
-      <c r="V47" s="7">
+      <c r="V47" s="20">
         <v>2</v>
       </c>
     </row>
@@ -2561,7 +2634,7 @@
       <c r="U48" s="7">
         <v>1</v>
       </c>
-      <c r="V48" s="7">
+      <c r="V48" s="20">
         <v>4</v>
       </c>
     </row>
@@ -2597,7 +2670,7 @@
       <c r="U49" s="7">
         <v>4</v>
       </c>
-      <c r="V49" s="7">
+      <c r="V49" s="20">
         <v>3</v>
       </c>
     </row>
@@ -2633,7 +2706,7 @@
       <c r="U50" s="7">
         <v>3</v>
       </c>
-      <c r="V50" s="7">
+      <c r="V50" s="20">
         <v>5</v>
       </c>
     </row>
@@ -2669,7 +2742,7 @@
       <c r="U51" s="7">
         <v>5</v>
       </c>
-      <c r="V51" s="7">
+      <c r="V51" s="20">
         <v>2</v>
       </c>
     </row>
@@ -2694,7 +2767,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
+      <c r="V52" s="21"/>
     </row>
     <row r="53" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
